--- a/biology/Zoologie/Glyptotherium/Glyptotherium.xlsx
+++ b/biology/Zoologie/Glyptotherium/Glyptotherium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glyptotherium est un genre fossile de tatous (ordre des Cingulata) de la famille des Chlamyphoridae. Il faisait partie de la mégafaune des Amériques, dont la plupart des représentants ont aujourd’hui disparu, probablement en raison d'une chasse excessive de la fin du Pléistocène supérieur au début de l'Holocène.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Glyptotherium a été décrit en 1903 par Henry Fairfield Osborn[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Glyptotherium a été décrit en 1903 par Henry Fairfield Osborn.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Glyptotherium pouvait atteindre une longueur de 2 mètres et un poids de 400 kg, ce qui en faisait l'un des plus grands glyptodontes, après son proche parent Glyptodon et Doedicurus. 
 </t>
@@ -573,7 +589,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Glyptotherium texanum Osborn, 1903
 Glyptotherium cylindricum (Brown, 1912)</t>
@@ -604,7 +622,9 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Glyptotherium est apparu au début du Pliocène, il y a environ 4,9 millions d'années. L'espèce Glyptotherium cylindricum s'est éteinte il y a environ 7 000 ans.
 </t>
@@ -635,9 +655,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbre phylogénétique des Glyptodontinae ci-dessous est issu de Cuadrelli et al. 2020[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre phylogénétique des Glyptodontinae ci-dessous est issu de Cuadrelli et al. 2020 :
 </t>
         </is>
       </c>
